--- a/6.Gerenciamento de Projeto/CONIM - Checklist Verificacao de Projeto_v-1.xlsx
+++ b/6.Gerenciamento de Projeto/CONIM - Checklist Verificacao de Projeto_v-1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12CED82-F80E-4ABF-9215-955F50B6A17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="666" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="666" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="Ver-Construção1" sheetId="3" r:id="rId5"/>
     <sheet name="Ver-Transição1" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,12 +205,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,12 +374,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -544,12 +543,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -661,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -694,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -713,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="124">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1063,9 +1062,6 @@
     <t>Parcialmente</t>
   </si>
   <si>
-    <t>Não</t>
-  </si>
-  <si>
     <t>Nenhuma documentação extra utilizada na fase de Iniciação</t>
   </si>
   <si>
@@ -1073,12 +1069,28 @@
   </si>
   <si>
     <t>Informações referentes ao planejamento, não foram validados pelo cliente</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>No histórico de revisões citar apenas aquele que alterou o documento.</t>
+  </si>
+  <si>
+    <t>As descrições dos casos de uso "Gerenciar...", não parece ser um simples crud como descrito no modelo. Acredito que faça mais do que isso, esclarecer melhor e deve ser baseado nas necessidades descritas no vião.
+Os papeis inquilino e funcionario aparecem na especificação da história de usuario como usuario, porém não aparece no modelo.</t>
+  </si>
+  <si>
+    <t>Melhorar os casos de teste, com todas as possibilidades, inclusive as negativas (caso em que o sistema deve responder a um erro)</t>
+  </si>
+  <si>
+    <t>qdo não vao utilizar o artefato deve-se usar NA - não se aplica.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -1564,7 +1576,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1637,7 +1649,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.82758620689655171</c:v>
+                  <c:v>0.80769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1875,10 +1887,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1896,7 +1908,7 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1988,10 +2000,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2009,7 +2021,7 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2095,7 +2107,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2107,7 +2119,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2208,7 +2220,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2220,7 +2232,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7320,20 +7332,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
@@ -7353,7 +7365,7 @@
       </c>
       <c r="B3" s="20">
         <f>'Ver-Iniciação1'!$F$2</f>
-        <v>0.82758620689655171</v>
+        <v>0.80769230769230771</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7396,23 +7408,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -7461,11 +7473,11 @@
       </c>
       <c r="D2" s="25">
         <f>('Ver-Iniciação1'!$I$5/SUM('Ver-Iniciação1'!$G$5:'Ver-Iniciação1'!$J$5))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="25">
         <f>('Ver-Iniciação1'!$J$5/SUM('Ver-Iniciação1'!$G$5:'Ver-Iniciação1'!$J$5))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>2</v>
@@ -7533,11 +7545,11 @@
       </c>
       <c r="B4" s="25">
         <f>('Ver-Iniciação1'!$G$13/SUM('Ver-Iniciação1'!$G$13:'Ver-Iniciação1'!$J$13))</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C4" s="25">
         <f>('Ver-Iniciação1'!$H$13/SUM('Ver-Iniciação1'!$G$13:'Ver-Iniciação1'!$J$13))</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="25">
         <f>('Ver-Iniciação1'!$I$13/SUM('Ver-Iniciação1'!$G$13:'Ver-Iniciação1'!$J$13))</f>
@@ -7573,11 +7585,11 @@
       </c>
       <c r="B5" s="25">
         <f>('Ver-Iniciação1'!$G$19/SUM('Ver-Iniciação1'!$G$19:'Ver-Iniciação1'!$J$19))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="25">
         <f>('Ver-Iniciação1'!$H$19/SUM('Ver-Iniciação1'!$G$19:'Ver-Iniciação1'!$J$19))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="25">
         <f>('Ver-Iniciação1'!$I$19/SUM('Ver-Iniciação1'!$G$19:'Ver-Iniciação1'!$J$19))</f>
@@ -7621,11 +7633,11 @@
       </c>
       <c r="D6" s="25">
         <f>('Ver-Iniciação1'!$I$22/SUM('Ver-Iniciação1'!$G$22:'Ver-Iniciação1'!$J$22))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="25">
         <f>('Ver-Iniciação1'!$J$22/SUM('Ver-Iniciação1'!$G$22:'Ver-Iniciação1'!$J$22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -7813,11 +7825,11 @@
       </c>
       <c r="B11" s="25">
         <f>('Ver-Iniciação1'!$G$37/SUM('Ver-Iniciação1'!$G$37:'Ver-Iniciação1'!$J$37))</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C11" s="25">
         <f>('Ver-Iniciação1'!$H$37/SUM('Ver-Iniciação1'!$G$37:'Ver-Iniciação1'!$J$37))</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D11" s="25">
         <f>('Ver-Iniciação1'!$I$37/SUM('Ver-Iniciação1'!$G$37:'Ver-Iniciação1'!$J$37))</f>
@@ -8434,24 +8446,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="84" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8477,10 +8489,10 @@
       <c r="E2" s="43"/>
       <c r="F2" s="21">
         <f>COUNTIF(D5:D41,"Sim")/(COUNTA(D5:D41)-COUNTIF(D5:D41,"NA"))</f>
-        <v>0.82758620689655171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+        <v>0.80769230769230771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
@@ -8492,7 +8504,7 @@
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -8512,7 +8524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -8533,14 +8545,14 @@
       </c>
       <c r="I5">
         <f>COUNTIF(D6,"Não")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f>COUNTIF(D6,"NA")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="30" customFormat="1" ht="28.8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="30" customFormat="1" ht="30">
       <c r="A6" s="38"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -8549,10 +8561,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>117</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -8596,9 +8608,11 @@
         <v>114</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.4">
+      <c r="F8" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="34"/>
       <c r="B9" s="5">
         <v>3</v>
@@ -8612,7 +8626,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="34"/>
       <c r="B10" s="5">
         <v>4</v>
@@ -8626,7 +8640,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="14.4">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15">
       <c r="A11" s="34"/>
       <c r="B11" s="5">
         <v>5</v>
@@ -8654,7 +8668,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="34"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -8665,11 +8679,11 @@
       <c r="F13" s="12"/>
       <c r="G13">
         <f>COUNTIF(D14:D18,"Sim")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <f>COUNTIF(D14:D18,"Parcialmente")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f>COUNTIF(D14:D18,"Não")</f>
@@ -8680,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14" s="34"/>
       <c r="B14" s="23">
         <v>7</v>
@@ -8694,7 +8708,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A15" s="34"/>
       <c r="B15" s="5">
         <v>8</v>
@@ -8708,7 +8722,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="180">
       <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>9</v>
@@ -8717,12 +8731,14 @@
         <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="14.4">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A17" s="34"/>
       <c r="B17" s="23">
         <v>10</v>
@@ -8736,7 +8752,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="45">
       <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>11</v>
@@ -8748,11 +8764,11 @@
         <v>115</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="34"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
@@ -8763,11 +8779,11 @@
       <c r="F19" s="12"/>
       <c r="G19">
         <f>COUNTIF(D20:D21,"Sim")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f>COUNTIF(D20:D21,"Parcialmente")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <f>COUNTIF(D20:D21,"Não")</f>
@@ -8778,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.8">
+    <row r="20" spans="1:10" ht="30">
       <c r="A20" s="34"/>
       <c r="B20" s="23">
         <v>12</v>
@@ -8792,7 +8808,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="28.8">
+    <row r="21" spans="1:10" ht="75">
       <c r="A21" s="34"/>
       <c r="B21" s="5">
         <v>13</v>
@@ -8801,12 +8817,14 @@
         <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="34"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10" t="s">
@@ -8825,14 +8843,14 @@
       </c>
       <c r="I22">
         <f>COUNTIF(D23:D24,"Não")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <f>COUNTIF(D23:D24,"NA")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45">
       <c r="A23" s="34"/>
       <c r="B23" s="23">
         <v>14</v>
@@ -8841,12 +8859,14 @@
         <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.4">
+      <c r="F23" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="34"/>
       <c r="B24" s="5">
         <v>15</v>
@@ -8855,12 +8875,12 @@
         <v>35</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4">
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="34"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
@@ -8886,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.8">
+    <row r="26" spans="1:10" ht="30">
       <c r="A26" s="34"/>
       <c r="B26" s="23">
         <v>16</v>
@@ -8900,7 +8920,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4">
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>17</v>
@@ -8914,7 +8934,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="34"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
@@ -8940,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28.8">
+    <row r="29" spans="1:10" ht="30">
       <c r="A29" s="34"/>
       <c r="B29" s="23">
         <v>21</v>
@@ -8954,7 +8974,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="34"/>
       <c r="B30" s="5">
         <v>22</v>
@@ -8968,7 +8988,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="34"/>
       <c r="B31" s="5">
         <v>23</v>
@@ -8982,7 +9002,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="34"/>
       <c r="B32" s="5">
         <v>24</v>
@@ -8996,7 +9016,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="34"/>
       <c r="B33" s="5">
         <v>25</v>
@@ -9010,7 +9030,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
+    <row r="34" spans="1:10" ht="30">
       <c r="A34" s="34"/>
       <c r="B34" s="5">
         <v>26</v>
@@ -9037,7 +9057,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="43.2">
+    <row r="36" spans="1:10" ht="45">
       <c r="A36" s="34"/>
       <c r="B36" s="5">
         <v>28</v>
@@ -9049,7 +9069,7 @@
         <v>115</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36" s="8"/>
     </row>
@@ -9066,11 +9086,11 @@
       <c r="F37" s="12"/>
       <c r="G37">
         <f>COUNTIF(D38:D41,"Sim")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <f>COUNTIF(D38:D41,"Parcialmente")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <f>COUNTIF(D38:D41,"Não")</f>
@@ -9081,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="28.8">
+    <row r="38" spans="1:10" ht="30">
       <c r="A38" s="33"/>
       <c r="B38" s="23">
         <v>30</v>
@@ -9095,7 +9115,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="14.4">
+    <row r="39" spans="1:10" ht="30">
       <c r="A39" s="33"/>
       <c r="B39" s="5">
         <v>31</v>
@@ -9109,7 +9129,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="33"/>
       <c r="B40" s="5">
         <v>32</v>
@@ -9132,9 +9152,11 @@
         <v>42</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F41" s="8"/>
     </row>
   </sheetData>
@@ -9150,7 +9172,7 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D20:D21 D23:D24 D26:D27 D38:D41 D14:D18 D8:D12 D29:D36" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D20:D21 D23:D24 D26:D27 D38:D41 D14:D18 D8:D12 D29:D36">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9161,21 +9183,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="68" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
     <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9204,7 +9226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
@@ -9216,7 +9238,7 @@
       <c r="E3" s="46"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -9248,7 +9270,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="34"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -9276,7 +9298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="34"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -9286,7 +9308,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A8" s="34"/>
       <c r="B8" s="5">
         <v>2</v>
@@ -9314,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A9" s="34"/>
       <c r="B9" s="5">
         <v>3</v>
@@ -9330,7 +9352,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="34"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
@@ -9340,7 +9362,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="34"/>
       <c r="B11" s="23">
         <v>4</v>
@@ -9368,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8">
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" s="34"/>
       <c r="B12" s="23">
         <v>5</v>
@@ -9380,7 +9402,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
+    <row r="13" spans="1:10" ht="30">
       <c r="A13" s="34"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9392,7 +9414,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="28.8">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14" s="34"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9404,7 +9426,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="34"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
@@ -9414,7 +9436,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>7</v>
@@ -9454,7 +9476,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="28.8">
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>9</v>
@@ -9482,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.8">
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" s="34"/>
       <c r="B19" s="23">
         <v>10</v>
@@ -9494,7 +9516,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A20" s="34"/>
       <c r="B20" s="5">
         <v>11</v>
@@ -9506,7 +9528,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="28.8">
+    <row r="21" spans="1:10" ht="45">
       <c r="A21" s="34"/>
       <c r="B21" s="5">
         <v>12</v>
@@ -9518,7 +9540,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="37" t="s">
         <v>19</v>
       </c>
@@ -9530,7 +9552,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="28.8">
+    <row r="23" spans="1:10" ht="30">
       <c r="A23" s="34"/>
       <c r="B23" s="5">
         <v>17</v>
@@ -9558,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.8">
+    <row r="24" spans="1:10" ht="30">
       <c r="A24" s="34"/>
       <c r="B24" s="5">
         <v>18</v>
@@ -9570,7 +9592,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="28.8">
+    <row r="25" spans="1:10" ht="30">
       <c r="A25" s="34"/>
       <c r="B25" s="5">
         <v>19</v>
@@ -9582,7 +9604,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4">
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="34"/>
       <c r="B26" s="5">
         <v>21</v>
@@ -9594,7 +9616,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4">
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>22</v>
@@ -9606,7 +9628,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="44" t="s">
         <v>11</v>
       </c>
@@ -9618,7 +9640,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="44"/>
       <c r="B29" s="5">
         <v>23</v>
@@ -9646,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="44"/>
       <c r="B30" s="5">
         <v>24</v>
@@ -9658,7 +9680,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="28.8">
+    <row r="31" spans="1:10" ht="30">
       <c r="A31" s="44"/>
       <c r="B31" s="5">
         <v>25</v>
@@ -9670,7 +9692,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="44"/>
       <c r="B32" s="5">
         <v>26</v>
@@ -9682,7 +9704,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="44"/>
       <c r="B33" s="5">
         <v>27</v>
@@ -9694,7 +9716,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="44"/>
       <c r="B34" s="5">
         <v>28</v>
@@ -9718,7 +9740,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="28.8">
+    <row r="36" spans="1:10" ht="30">
       <c r="A36" s="33"/>
       <c r="B36" s="5">
         <v>29</v>
@@ -9746,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4">
+    <row r="37" spans="1:10" ht="15">
       <c r="A37" s="33"/>
       <c r="B37" s="5">
         <v>30</v>
@@ -9758,7 +9780,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="28.8">
+    <row r="38" spans="1:10" ht="30">
       <c r="A38" s="33"/>
       <c r="B38" s="5">
         <v>31</v>
@@ -9770,7 +9792,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="14.4">
+    <row r="39" spans="1:10" ht="15">
       <c r="A39" s="33"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10" t="s">
@@ -9780,7 +9802,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="33"/>
       <c r="B40" s="5">
         <v>32</v>
@@ -9808,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4">
+    <row r="41" spans="1:10" ht="15">
       <c r="A41" s="33"/>
       <c r="B41" s="5">
         <v>33</v>
@@ -9834,10 +9856,10 @@
     <mergeCell ref="A5:A16"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D22 D28 D35 D39" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D22 D28 D35 D39">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D41 D36:D38 D29:D34 D18:D21 D16 D11:D14 D8:D9 D6 D23:D27" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D41 D36:D38 D29:D34 D18:D21 D16 D11:D14 D8:D9 D6 D23:D27">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9847,22 +9869,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="71.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="10" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
@@ -9890,7 +9912,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
@@ -9902,7 +9924,7 @@
       <c r="E3" s="46"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -9934,7 +9956,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="34"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -9962,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="34"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -9972,7 +9994,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A8" s="34"/>
       <c r="B8" s="5">
         <v>2</v>
@@ -10000,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="34"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
@@ -10010,7 +10032,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="34"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10038,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="34"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10062,7 +10084,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="34"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -10072,7 +10094,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="34"/>
       <c r="B14" s="5">
         <v>6</v>
@@ -10112,7 +10134,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>8</v>
@@ -10140,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.4">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="37" t="s">
         <v>19</v>
       </c>
@@ -10152,7 +10174,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>11</v>
@@ -10180,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.8">
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" s="34"/>
       <c r="B19" s="5">
         <v>13</v>
@@ -10192,7 +10214,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="28.8">
+    <row r="20" spans="1:10" ht="30">
       <c r="A20" s="34"/>
       <c r="B20" s="5">
         <v>14</v>
@@ -10204,7 +10226,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="34"/>
       <c r="B21" s="5">
         <v>15</v>
@@ -10216,7 +10238,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="34"/>
       <c r="B22" s="5">
         <v>16</v>
@@ -10228,7 +10250,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4">
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="37" t="s">
         <v>20</v>
       </c>
@@ -10240,7 +10262,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="28.8">
+    <row r="24" spans="1:10" ht="30">
       <c r="A24" s="34"/>
       <c r="B24" s="23">
         <v>17</v>
@@ -10268,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.8">
+    <row r="25" spans="1:10" ht="30">
       <c r="A25" s="34"/>
       <c r="B25" s="5">
         <v>18</v>
@@ -10280,7 +10302,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4">
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="34"/>
       <c r="B26" s="5">
         <v>19</v>
@@ -10292,7 +10314,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4">
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>21</v>
@@ -10304,7 +10326,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="34"/>
       <c r="B28" s="5">
         <v>22</v>
@@ -10316,7 +10338,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="44" t="s">
         <v>11</v>
       </c>
@@ -10328,7 +10350,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="44"/>
       <c r="B30" s="5">
         <v>24</v>
@@ -10356,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28.8">
+    <row r="31" spans="1:10" ht="30">
       <c r="A31" s="44"/>
       <c r="B31" s="5">
         <v>26</v>
@@ -10368,7 +10390,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="44"/>
       <c r="B32" s="5">
         <v>27</v>
@@ -10380,7 +10402,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="44"/>
       <c r="B33" s="5">
         <v>28</v>
@@ -10392,7 +10414,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="44"/>
       <c r="B34" s="5">
         <v>29</v>
@@ -10416,7 +10438,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="28.8">
+    <row r="36" spans="1:10" ht="30">
       <c r="A36" s="33"/>
       <c r="B36" s="5">
         <v>30</v>
@@ -10444,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4">
+    <row r="37" spans="1:10" ht="15">
       <c r="A37" s="33"/>
       <c r="B37" s="5">
         <v>31</v>
@@ -10456,7 +10478,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="28.8">
+    <row r="38" spans="1:10" ht="30">
       <c r="A38" s="33"/>
       <c r="B38" s="5">
         <v>32</v>
@@ -10468,7 +10490,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="14.4">
+    <row r="39" spans="1:10" ht="15">
       <c r="A39" s="33"/>
       <c r="B39" s="5"/>
       <c r="C39" s="8" t="s">
@@ -10478,7 +10500,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="33"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10" t="s">
@@ -10488,7 +10510,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4">
+    <row r="41" spans="1:10" ht="15">
       <c r="A41" s="33"/>
       <c r="B41" s="5">
         <v>33</v>
@@ -10516,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4">
+    <row r="42" spans="1:10" ht="15">
       <c r="A42" s="33"/>
       <c r="B42" s="5">
         <v>34</v>
@@ -10528,53 +10550,53 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="51" spans="2:3" ht="14.4">
+    <row r="51" spans="2:3" ht="15">
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="2:3" ht="14.4">
+    <row r="52" spans="2:3" ht="15">
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="2:3" ht="14.4">
+    <row r="53" spans="2:3" ht="15">
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="2:3" ht="14.4">
+    <row r="54" spans="2:3" ht="15">
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="2:3" ht="14.4">
+    <row r="55" spans="2:3" ht="15">
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="2:3" ht="14.4">
+    <row r="56" spans="2:3" ht="15">
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="2:3" ht="14.4">
+    <row r="57" spans="2:3" ht="15">
       <c r="B57"/>
       <c r="C57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23 D15 D17 D40 D35 D29" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23 D15 D17 D40 D35 D29">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D36:D39 D41:D42 D18:D22 D24:D28 D30:D34" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D36:D39 D41:D42 D18:D22 D24:D28 D30:D34">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10584,21 +10606,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="71.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
     <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10627,7 +10649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
@@ -10639,7 +10661,7 @@
       <c r="E3" s="46"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -10671,7 +10693,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="34"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -10699,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="34"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -10709,7 +10731,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A8" s="34"/>
       <c r="B8" s="5">
         <v>2</v>
@@ -10737,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="34"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
@@ -10747,7 +10769,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="34"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10775,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="34"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10799,7 +10821,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="34"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -10809,7 +10831,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="34"/>
       <c r="B14" s="5">
         <v>6</v>
@@ -10849,7 +10871,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>8</v>
@@ -10889,7 +10911,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4">
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>9</v>
@@ -10917,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="34"/>
       <c r="B19" s="5">
         <v>10</v>
@@ -10929,7 +10951,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="28.8">
+    <row r="20" spans="1:10" ht="30">
       <c r="A20" s="34"/>
       <c r="B20" s="5">
         <v>11</v>
@@ -10941,7 +10963,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="38"/>
       <c r="B21" s="5">
         <v>13</v>
@@ -10953,7 +10975,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="37" t="s">
         <v>20</v>
       </c>
@@ -10965,7 +10987,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4">
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="34"/>
       <c r="B23" s="5">
         <v>14</v>
@@ -10993,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="34"/>
       <c r="B24" s="5">
         <v>15</v>
@@ -11017,7 +11039,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A26" s="34"/>
       <c r="B26" s="23">
         <v>24</v>
@@ -11045,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="43.2">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="45">
       <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>25</v>
@@ -11057,7 +11079,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="34"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
@@ -11067,7 +11089,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="28.8">
+    <row r="29" spans="1:10" ht="30">
       <c r="A29" s="34"/>
       <c r="B29" s="23">
         <v>26</v>
@@ -11095,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="44" t="s">
         <v>11</v>
       </c>
@@ -11107,7 +11129,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="44"/>
       <c r="B31" s="5">
         <v>19</v>
@@ -11135,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.8">
+    <row r="32" spans="1:10" ht="30">
       <c r="A32" s="44"/>
       <c r="B32" s="5">
         <v>20</v>
@@ -11147,7 +11169,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="44"/>
       <c r="B33" s="5">
         <v>21</v>
@@ -11159,7 +11181,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="44"/>
       <c r="B34" s="5">
         <v>24</v>
@@ -11171,7 +11193,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4">
+    <row r="35" spans="1:10" ht="15">
       <c r="A35" s="44"/>
       <c r="B35" s="5">
         <v>25</v>
@@ -11195,7 +11217,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="28.8">
+    <row r="37" spans="1:10" ht="30">
       <c r="A37" s="33"/>
       <c r="B37" s="5">
         <v>26</v>
@@ -11223,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4">
+    <row r="38" spans="1:10" ht="15">
       <c r="A38" s="33"/>
       <c r="B38" s="5">
         <v>27</v>
@@ -11235,7 +11257,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="28.8">
+    <row r="39" spans="1:10" ht="30">
       <c r="A39" s="33"/>
       <c r="B39" s="5">
         <v>28</v>
@@ -11247,7 +11269,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="33"/>
       <c r="B40" s="5"/>
       <c r="C40" s="8" t="s">
@@ -11257,7 +11279,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4">
+    <row r="41" spans="1:10" ht="15">
       <c r="A41" s="33"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10" t="s">
@@ -11267,7 +11289,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="14.4">
+    <row r="42" spans="1:10" ht="15">
       <c r="A42" s="33"/>
       <c r="B42" s="5">
         <v>29</v>
@@ -11295,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.4">
+    <row r="43" spans="1:10" ht="15">
       <c r="A43" s="33"/>
       <c r="B43" s="5">
         <v>30</v>
@@ -11307,36 +11329,41 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="52" spans="2:3" ht="14.4">
+    <row r="52" spans="2:3" ht="15">
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="2:3" ht="14.4">
+    <row r="53" spans="2:3" ht="15">
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="2:3" ht="14.4">
+    <row r="54" spans="2:3" ht="15">
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="2:3" ht="14.4">
+    <row r="55" spans="2:3" ht="15">
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="2:3" ht="14.4">
+    <row r="56" spans="2:3" ht="15">
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="2:3" ht="14.4">
+    <row r="57" spans="2:3" ht="15">
       <c r="B57"/>
       <c r="C57"/>
     </row>
-    <row r="58" spans="2:3" ht="14.4">
+    <row r="58" spans="2:3" ht="15">
       <c r="B58"/>
       <c r="C58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:F1"/>
@@ -11344,17 +11371,12 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 D17 D15 D22 D41 D36 D30 D28" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 D17 D15 D22 D41 D36 D30 D28">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D23:D24 D26:D27 D29 D31:D35 D42:D43 D18:D21 D37:D40" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D23:D24 D26:D27 D29 D31:D35 D42:D43 D18:D21 D37:D40">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
